--- a/FYP/Test Cases.xlsx
+++ b/FYP/Test Cases.xlsx
@@ -5,14 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben chua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben chua\Documents\GitHub\SmartHawker\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="826"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="3" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="FAQ" sheetId="2" r:id="rId3"/>
+    <sheet name="Contact Us" sheetId="4" r:id="rId4"/>
+    <sheet name="Authentication" sheetId="5" r:id="rId5"/>
+    <sheet name="Data recording" sheetId="6" r:id="rId6"/>
+    <sheet name="Business calendar" sheetId="7" r:id="rId7"/>
+    <sheet name="Local iOS storage (sync)" sheetId="9" r:id="rId8"/>
+    <sheet name="Tax calculation" sheetId="10" r:id="rId9"/>
+    <sheet name="User access control" sheetId="11" r:id="rId10"/>
+    <sheet name="Analytics" sheetId="12" r:id="rId11"/>
+    <sheet name="Multiple languages" sheetId="13" r:id="rId12"/>
+    <sheet name="Image capturing" sheetId="14" r:id="rId13"/>
+    <sheet name="Backend admin dashboard" sheetId="15" r:id="rId14"/>
+    <sheet name="Fingerprint logon" sheetId="16" r:id="rId15"/>
+    <sheet name="Push notification" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -45,13 +60,186 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>Functions Completed:</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Able to register account successfully.
+1) Sign-up using:
+Username: smarthawkie
+Password: 1234abcd</t>
+  </si>
+  <si>
+    <t>Account created successfully.</t>
+  </si>
+  <si>
+    <t>Logging into app using the following username:
+Username: smarthawkie
+Password: 1234abcd</t>
+  </si>
+  <si>
+    <t>Logging in using a wrong username.
+Username: stupidhawkie
+Password: 1234abcd</t>
+  </si>
+  <si>
+    <t>Logging in using a wrong password.
+Username: smarthawkie
+Password: abcd1234</t>
+  </si>
+  <si>
+    <t>Logging in using admin account
+Username: SmartAdmin
+Password: edmund&amp;marcus</t>
+  </si>
+  <si>
+    <t>Admin login successful.</t>
+  </si>
+  <si>
+    <t>Incorrect or non-existing username or password.</t>
+  </si>
+  <si>
+    <t>Login successful.</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>1) Login using:
+Username: smarthawkie
+Password: 1234abcd
+Go to FAQ Tab in app.
+Check English FAQ.</t>
+  </si>
+  <si>
+    <t>1) Login using:
+Username: smarthawkie
+Password: 1234abcd
+Go to FAQ Tab in app.
+Check Chinese FAQ.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Data recording</t>
+  </si>
+  <si>
+    <t>Business calendar</t>
+  </si>
+  <si>
+    <t>Local iOS storage (sync)</t>
+  </si>
+  <si>
+    <t>Tax calculation</t>
+  </si>
+  <si>
+    <t>User access control</t>
+  </si>
+  <si>
+    <t>Analytics (Graphical)</t>
+  </si>
+  <si>
+    <t>Multiple languages</t>
+  </si>
+  <si>
+    <t>Image capturing</t>
+  </si>
+  <si>
+    <t>Analytics (Data interpretation)</t>
+  </si>
+  <si>
+    <t>Backend admin dashboard</t>
+  </si>
+  <si>
+    <t>Fingerprint logon</t>
+  </si>
+  <si>
+    <t>Push notification</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>1) Login using:
+Username: smarthawkie
+Password: 1234abcd
+Go to Contact us Tab in app.
+Check English Contact us details.</t>
+  </si>
+  <si>
+    <t>1) Login using:
+Username: smarthawkie
+Password: 1234abcd
+Go to Contact us Tab in app.
+Check Chinese Contact us details.</t>
+  </si>
+  <si>
+    <t>Who do I contact regarding technical issues?
+You can contact us via email at help@smarthawker.com or call us at 96600644 and we will be glad to assist you.</t>
+  </si>
+  <si>
+    <t>如有技术上的问题怎么办?
+您可发邮件到help@smarthawker.com或直接拨打96600644询问。我们乐意为您效劳。</t>
+  </si>
+  <si>
+    <t>1) Smart Hawker 是什么?
+Smart Hawker 是一款帮助小贩记录，整理和监控他们平时生意交易活动的各项财务信息的移动软件
+2) 那又为何必须要有一项健全的记录系统呢?
+近来，小贩的经营环境越来越激烈。只拥有良好的经营习惯已远远不够。原料和经营成本的成本不断上涨也只会导致更激烈的竞争。如果您现在跟50年前的小贩，大多数小贩都会同意现在必须更加注意对他们管理自己的业务的方式，尤其是当它涉及到成本核算和管理的时候。
+3) Smart Hawker 能提供一些什么关于您的财务信息?
+Smart Hawker 主要关注对小贩最有关的4项财务信息 i) 销售额 ii) 主营业务成本 (COGS) iii) 其他开销 iv) 利润。这些信息在对独资企业，首合伙人或单个合伙人报税的时候也是必要的。
+4) Smart Hawker如何帮助您申报所得税?
+您每日的财务信息编译成新加坡国内税务局(IRAS) 对独资企业，首合伙人或单个合伙人所要的两行或四行年营业收入报告。
+5) Smart Hawker 还能提供您什么其他服务?
+除了数据记录，智能小贩还提供关于您生意财务的信息图表于报告。让您简单，轻松地管理财务。
+6) 用Smart Hawker需要付费吗?
+不用! Smart Hawker现在是一款完全免费的移动软件。
+7) 如何询问更多详情?
+您可以发邮件到help@smarthawker.com或直接拨打96600644询问。
+8) 如有技术上的问题怎么办?
+您可发邮件到help@smarthawker.com或直接拨打96600644询问。我们乐意为您效劳。</t>
+  </si>
+  <si>
+    <t>1) What is Smart Hawker?
+Smart Hawker is a mobile application that helps hawkers record, organize and monitor key financial information arising from their direct trading activities.
+2) Why is it important for hawkers to have a proper record-keeping system?
+Apart from developing good business practices, the operating environment for hawkers has become increasingly challenging. Cost of ingredients and operating costs continue to rise amidst greater competition. If you compare the hawker industry now to what it was 50 years ago, most hawkers will agree that they now have to be more mindful about the way they manage their business, especially when it comes to cost accounting and management.
+3) What specific financial information does Smart Hawker monitor?
+Smart Hawker monitors four key financial figures – i) Sales, ii) Food Cost (COGS), iii) Expenses (Non-Food) and iv) Profit. These are key figures relevant to most hawkers. This set of information is also required in the calculation of annual income tax as a sole-proprietor, precedent partner or individual partner.
+4) How does Smart Hawker help with income tax filing?
+Daily information will be recorded and compiled into annual figures that can be used for either the 2-line or 4-line statement required to calculate and report annual business income, as specified by the Inland Revenue Authority of Singapore (IRAS) for sole-proprietors, precedent partners or individual partners.
+5) What other features are available on Smart Hawker?
+Apart from numerical records, Smart Hawker also provides simple charts and spreadsheet reports for monitoring and decision-making purposes.
+6) Do I have to pay for Smart Hawker?
+No. Smart Hawker is currently a free mobile application.
+7) Where can I get more information about Smart Hawker?
+You can email us at help@smarthawker.com or call us at 96600644 for more information.
+8) Who do I contact regarding technical issues?
+You can contact us via email at help@smarthawker.com or call us at 96600644 and we will be glad to assist you.</t>
+  </si>
+  <si>
+    <t>Analytics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,19 +247,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,8 +274,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,18 +322,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,166 +635,1391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="215" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="279.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FYP/Test Cases.xlsx
+++ b/FYP/Test Cases.xlsx
@@ -9,25 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="944"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
-    <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="FAQ" sheetId="2" r:id="rId3"/>
-    <sheet name="Contact Us" sheetId="4" r:id="rId4"/>
-    <sheet name="Authentication" sheetId="5" r:id="rId5"/>
-    <sheet name="Data recording" sheetId="6" r:id="rId6"/>
-    <sheet name="Business calendar" sheetId="7" r:id="rId7"/>
-    <sheet name="Local iOS storage (sync)" sheetId="9" r:id="rId8"/>
-    <sheet name="Tax calculation" sheetId="10" r:id="rId9"/>
-    <sheet name="User access control" sheetId="11" r:id="rId10"/>
-    <sheet name="Analytics" sheetId="12" r:id="rId11"/>
-    <sheet name="Multiple languages" sheetId="13" r:id="rId12"/>
-    <sheet name="Image capturing" sheetId="14" r:id="rId13"/>
-    <sheet name="Backend admin dashboard" sheetId="15" r:id="rId14"/>
-    <sheet name="Fingerprint logon" sheetId="16" r:id="rId15"/>
-    <sheet name="Push notification" sheetId="17" r:id="rId16"/>
+    <sheet name="Authentication Module (I)" sheetId="1" r:id="rId2"/>
+    <sheet name="Authentication Module (II)" sheetId="5" r:id="rId3"/>
+    <sheet name="Enquiry Module" sheetId="2" r:id="rId4"/>
+    <sheet name="Recording Module" sheetId="6" r:id="rId5"/>
+    <sheet name="Business calendar Module" sheetId="7" r:id="rId6"/>
+    <sheet name="Local Storage Module" sheetId="9" r:id="rId7"/>
+    <sheet name="Analytics Module" sheetId="12" r:id="rId8"/>
+    <sheet name="Multiple languages Module (I)" sheetId="13" r:id="rId9"/>
+    <sheet name="Multiple languages Module (II)" sheetId="18" r:id="rId10"/>
+    <sheet name="Image Capturing Module" sheetId="14" r:id="rId11"/>
+    <sheet name="Backend Admin Module" sheetId="15" r:id="rId12"/>
+    <sheet name="Push Notification Module" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>Functions Completed:</t>
   </si>
   <si>
     <t>Function</t>
@@ -123,55 +117,13 @@
 Check Chinese FAQ.</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Contact us</t>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>Data recording</t>
-  </si>
-  <si>
-    <t>Business calendar</t>
-  </si>
-  <si>
     <t>Local iOS storage (sync)</t>
-  </si>
-  <si>
-    <t>Tax calculation</t>
-  </si>
-  <si>
-    <t>User access control</t>
-  </si>
-  <si>
-    <t>Analytics (Graphical)</t>
-  </si>
-  <si>
-    <t>Multiple languages</t>
-  </si>
-  <si>
-    <t>Image capturing</t>
-  </si>
-  <si>
-    <t>Analytics (Data interpretation)</t>
-  </si>
-  <si>
-    <t>Backend admin dashboard</t>
-  </si>
-  <si>
-    <t>Fingerprint logon</t>
-  </si>
-  <si>
-    <t>Push notification</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
   </si>
   <si>
     <t>1) Login using:
@@ -232,7 +184,64 @@
 You can contact us via email at help@smarthawker.com or call us at 96600644 and we will be glad to assist you.</t>
   </si>
   <si>
-    <t>Analytics</t>
+    <t>Authentication Module (I)</t>
+  </si>
+  <si>
+    <t>Recording Module</t>
+  </si>
+  <si>
+    <t>Business Calendar Module</t>
+  </si>
+  <si>
+    <t>Enquiry Module</t>
+  </si>
+  <si>
+    <t>Language Module (I)</t>
+  </si>
+  <si>
+    <t>Local Storage Module</t>
+  </si>
+  <si>
+    <t>Analytics Module</t>
+  </si>
+  <si>
+    <t>Core Functions I</t>
+  </si>
+  <si>
+    <t>Modules Completed:</t>
+  </si>
+  <si>
+    <t>Core Functions II</t>
+  </si>
+  <si>
+    <t>Backend Admin Module</t>
+  </si>
+  <si>
+    <t>Language Module (II)</t>
+  </si>
+  <si>
+    <t>Secondary Functions</t>
+  </si>
+  <si>
+    <t>Image Capturing Module</t>
+  </si>
+  <si>
+    <t>Push Notification Module</t>
+  </si>
+  <si>
+    <t>Authentication Module (II)</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Business calendar Module</t>
+  </si>
+  <si>
+    <t>Multiple Languages Module (I)</t>
+  </si>
+  <si>
+    <t>Multiple Languages Module (II)</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +303,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -335,11 +350,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,9 +378,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,105 +673,147 @@
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -753,7 +822,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -782,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -823,7 +892,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -852,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -893,12 +962,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -906,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -925,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -966,223 +1035,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1214,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1255,7 +1108,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1292,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1315,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1331,10 +1184,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1347,10 +1200,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1363,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1379,10 +1232,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1478,6 +1331,79 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1496,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1515,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1535,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1551,109 +1477,48 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="6" spans="1:6" ht="132" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="144" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,7 +1530,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1678,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1697,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1743,7 +1608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1751,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1770,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1807,79 +1672,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1897,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1916,7 +1708,77 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1957,13 +1819,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1971,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1990,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>

--- a/FYP/Test Cases.xlsx
+++ b/FYP/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="944" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Function</t>
-  </si>
-  <si>
-    <t>Able to register account successfully.
-1) Sign-up using:
-Username: smarthawkie
-Password: 1234abcd</t>
   </si>
   <si>
     <t>Account created successfully.</t>
@@ -242,6 +236,52 @@
   </si>
   <si>
     <t>Multiple Languages Module (II)</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Able to register account successfully.
+1) Sign-up using:
+Username: smarthawkie
+Business Name: SMU rice
+Business Reg No: 246810
+Business Address: Stamford Road 123
+Username: smarthawkie
+Email: smarthawkerz@gmail.com
+Phone Number: 82820206
+Password: 1234abcd
+Confirm Password: 1234abcd</t>
+  </si>
+  <si>
+    <t>Able to register account successfully.
+1) Sign-up using:
+Username: 
+Business Name: SMU rice
+Business Reg No: 246810
+Business Address: Stamford Road 123
+Username: smarthawkie
+Email: smarthawkerz@gmail.com
+Phone Number: 82820206
+Password: 1234abcd
+Confirm Password: 1234abcd</t>
+  </si>
+  <si>
+    <t>Account created unsuccessfully.
+Please enter all the fields.</t>
+  </si>
+  <si>
+    <t>Able to register account successfully.
+1) Sign-up using:
+Username: smarthawkie
+Business Name: 
+Business Reg No: 246810
+Business Address: Stamford Road 123
+Username: smarthawkie
+Email: smarthawkerz@gmail.com
+Phone Number: 82820206
+Password: 1234abcd
+Confirm Password: 1234abcd</t>
   </si>
 </sst>
 </file>
@@ -664,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -675,64 +715,64 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -741,32 +781,32 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -775,32 +815,32 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -832,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -902,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -975,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1048,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1107,14 +1147,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.7265625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
@@ -1126,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1160,55 +1201,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="171.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="132" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="132" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1216,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -1224,7 +1265,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1232,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -1240,87 +1281,73 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1346,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1422,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1461,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1477,13 +1504,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1493,13 +1520,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1509,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1543,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1616,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1689,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1759,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1832,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
